--- a/BNTX.xlsx
+++ b/BNTX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9A558E-F864-491A-9DFD-C79C876F622B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2FE9BE-8297-4EEB-8CF5-FE3FAFD7AD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="77085" yWindow="915" windowWidth="25035" windowHeight="19590" activeTab="1" xr2:uid="{50B2AA5C-A5FB-486F-967D-0A2DB26A44B5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{50B2AA5C-A5FB-486F-967D-0A2DB26A44B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>Price</t>
   </si>
@@ -199,13 +199,16 @@
   </si>
   <si>
     <t>S/O</t>
+  </si>
+  <si>
+    <t>Revenue y/y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -221,6 +224,13 @@
     </font>
     <font>
       <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -334,14 +344,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -349,13 +358,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -374,6 +389,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>20053</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>80211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>20053</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>40105</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0664B60-7FDF-26F1-DBEE-2F6C00960BA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5068303" y="80211"/>
+          <a:ext cx="0" cy="5895473"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -689,25 +759,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J2" t="s">
@@ -721,18 +791,16 @@
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J3" t="s">
@@ -746,13 +814,13 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
       <c r="J4" t="s">
         <v>2</v>
       </c>
@@ -763,14 +831,10 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="4"/>
       <c r="J5" t="s">
         <v>5</v>
       </c>
@@ -783,14 +847,10 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="12" t="s">
+      <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
+      <c r="H6" s="4"/>
       <c r="J6" t="s">
         <v>6</v>
       </c>
@@ -806,12 +866,7 @@
       <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="4"/>
       <c r="J7" t="s">
         <v>3</v>
       </c>
@@ -824,39 +879,30 @@
       <c r="B8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="12" t="s">
+      <c r="E8" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
+      <c r="H8" s="4"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
+      <c r="H9" s="4"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="12" t="s">
         <v>32</v>
       </c>
     </row>
@@ -868,24 +914,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A713E281-DBD7-43C4-AF39-0BDD7430D7F5}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="14" width="8.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -934,316 +980,386 @@
       <c r="B3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13">
         <v>5280.5</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15">
+      <c r="E3" s="13">
+        <v>6040.1</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13">
         <v>3166.3</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
+      <c r="I3" s="13">
+        <v>3394.8</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13">
         <v>28</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15">
+      <c r="E4" s="13">
+        <v>47.2</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13">
         <v>30.2</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-    </row>
-    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+      <c r="I4" s="13">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+    </row>
+    <row r="5" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16">
         <f>+D3+D4</f>
         <v>5308.5</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15">
+      <c r="E5" s="16">
+        <f>+E3+E4</f>
+        <v>6087.3</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16">
         <f>+H3+H4</f>
         <v>3196.5</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
+      <c r="I5" s="16">
+        <f>+I3+I4</f>
+        <v>3461.2000000000003</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
     </row>
     <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13">
         <v>883.8</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15">
+      <c r="E6" s="13">
+        <v>1211.4000000000001</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13">
         <v>764.6</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
+      <c r="I6" s="13">
+        <v>752.8</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
     </row>
     <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13">
         <f>+D5-D6</f>
         <v>4424.7</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15">
+      <c r="E7" s="13">
+        <f>+E5-E6</f>
+        <v>4875.8999999999996</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13">
         <f>+H5-H6</f>
         <v>2431.9</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
+      <c r="I7" s="13">
+        <f>+I5-I6</f>
+        <v>2708.4000000000005</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
     </row>
     <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13">
         <v>201.1</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15">
+      <c r="E8" s="13">
+        <v>260.39999999999998</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13">
         <v>399.6</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
+      <c r="I8" s="13">
+        <v>341.8</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
     </row>
     <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13">
         <v>13.3</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15">
+      <c r="E9" s="13">
+        <v>10.5</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13">
         <v>17.8</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
+      <c r="I9" s="13">
+        <v>12.8</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
     </row>
     <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13">
         <v>47.8</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15">
+      <c r="E10" s="13">
+        <v>68.2</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13">
         <v>130</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
+      <c r="I10" s="13">
+        <v>141</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13">
         <f>+D8+D9+D10</f>
         <v>262.2</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15">
+      <c r="E11" s="13">
+        <f>+E8+E9+E10</f>
+        <v>339.09999999999997</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13">
         <f>+H8+H9+H10</f>
         <v>547.40000000000009</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
+      <c r="I11" s="13">
+        <f>+I8+I9+I10</f>
+        <v>495.6</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13">
         <f>+D7-D11</f>
         <v>4162.5</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15">
+      <c r="E12" s="13">
+        <f>+E7-E11</f>
+        <v>4536.7999999999993</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13">
         <f>+H7-H11</f>
         <v>1884.5</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
+      <c r="I12" s="13">
+        <f>+I7-I11</f>
+        <v>2212.8000000000006</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
     </row>
     <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13">
         <f>-0.3+36.2+0.3-175.9</f>
         <v>-139.69999999999999</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15">
+      <c r="E13" s="13">
+        <f>-26.4+213.1+26.6-82.7</f>
+        <v>130.59999999999997</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13">
         <f>-240.7+565.8+115.5-5.8</f>
         <v>434.79999999999995</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
+      <c r="I13" s="13">
+        <f>60.9-4.3-285.1+459.8</f>
+        <v>231.29999999999998</v>
+      </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
     </row>
     <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13">
         <f>+D12+D13</f>
         <v>4022.8</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15">
+      <c r="E14" s="13">
+        <f>+E12+E13</f>
+        <v>4667.3999999999996</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13">
         <f>+H12+H13</f>
         <v>2319.3000000000002</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
+      <c r="I14" s="13">
+        <f>+I12+I13</f>
+        <v>2444.1000000000008</v>
+      </c>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
     </row>
     <row r="15" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13">
         <v>1235.5999999999999</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15">
+      <c r="E15" s="13">
+        <v>1456.4</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13">
         <v>647.29999999999995</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
+      <c r="I15" s="13">
+        <v>659.2</v>
+      </c>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
     </row>
     <row r="16" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13">
         <f>+D14-D15</f>
         <v>2787.2000000000003</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15">
+      <c r="E16" s="13">
+        <f>+E14-E15</f>
+        <v>3210.9999999999995</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13">
         <f>+H14-H15</f>
         <v>1672.0000000000002</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
+      <c r="I16" s="13">
+        <f>+I14-I15</f>
+        <v>1784.9000000000008</v>
+      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="H17" s="16">
+      <c r="D17" s="14"/>
+      <c r="H17" s="14">
         <f>+H16/H18</f>
         <v>6.8895893854173114</v>
       </c>
@@ -1252,26 +1368,41 @@
       <c r="B18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13">
         <v>242.685</v>
       </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="17">
+        <f t="shared" ref="H20" si="0">+H5/D5-1</f>
+        <v>-0.3978525007064142</v>
+      </c>
+      <c r="I20" s="17">
+        <f>+I5/E5-1</f>
+        <v>-0.43140637064051379</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{DA7D47B3-51F1-4F9B-A6EB-C1FE772D2E7F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/BNTX.xlsx
+++ b/BNTX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2FE9BE-8297-4EEB-8CF5-FE3FAFD7AD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA710DF8-9011-40A6-9BA3-3BA6B38B21E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{50B2AA5C-A5FB-486F-967D-0A2DB26A44B5}"/>
+    <workbookView xWindow="7545" yWindow="3810" windowWidth="29475" windowHeight="16680" xr2:uid="{50B2AA5C-A5FB-486F-967D-0A2DB26A44B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={7C2EFE98-7AF8-46BF-A2A8-7B6418971757}</author>
+  </authors>
+  <commentList>
+    <comment ref="Z5" authorId="0" shapeId="0" xr:uid="{7C2EFE98-7AF8-46BF-A2A8-7B6418971757}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    16-17B EUR Q322 guidance</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
   <si>
     <t>Price</t>
   </si>
@@ -202,13 +220,97 @@
   </si>
   <si>
     <t>Revenue y/y</t>
+  </si>
+  <si>
+    <t>BNT163</t>
+  </si>
+  <si>
+    <t>HSV-2 vaccine</t>
+  </si>
+  <si>
+    <t>Vaccine</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>Provisions</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Prof. Ugur Sahin</t>
+  </si>
+  <si>
+    <t>2008: Founded</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Comirnaty (PFE)</t>
+  </si>
+  <si>
+    <t>% of Comirnaty</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Stock</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -236,13 +338,30 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -344,20 +463,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -372,6 +488,29 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -395,16 +534,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>20053</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>80211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>20053</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>40105</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>125016</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -419,8 +558,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5068303" y="80211"/>
-          <a:ext cx="0" cy="5895473"/>
+          <a:off x="5050444" y="80211"/>
+          <a:ext cx="0" cy="7920789"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -444,6 +583,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{5408AB7C-D285-4FFF-92FF-1A67FC74C4B1}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -741,50 +886,59 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="Z5" dT="2023-02-27T19:38:57.48" personId="{5408AB7C-D285-4FFF-92FF-1A67FC74C4B1}" id="{7C2EFE98-7AF8-46BF-A2A8-7B6418971757}">
+    <text>16-17B EUR Q322 guidance</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A2D0BB-EC2F-4419-B5B8-5A9E61402036}">
-  <dimension ref="B2:L12"/>
+  <dimension ref="B2:L13"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
     <col min="9" max="9" width="2.28515625" customWidth="1"/>
     <col min="10" max="10" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="21" t="s">
         <v>16</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>150.91</v>
+      <c r="K2" s="16">
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -800,7 +954,7 @@
       <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="22" t="s">
         <v>18</v>
       </c>
       <c r="J3" t="s">
@@ -814,19 +968,19 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="21"/>
       <c r="J4" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>36623.653864910004</v>
+        <v>31791.787531000002</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -834,15 +988,15 @@
       <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="22"/>
       <c r="J5" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="2">
-        <v>9334.7999999999993</v>
+        <v>13481</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
@@ -850,29 +1004,28 @@
       <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="22"/>
       <c r="J6" t="s">
         <v>6</v>
       </c>
       <c r="K6" s="2">
-        <f>206.6+807.3</f>
-        <v>1013.9</v>
+        <v>967</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="22"/>
       <c r="J7" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>28302.753864910006</v>
+        <v>19277.787531000002</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
@@ -882,28 +1035,44 @@
       <c r="E8" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="22"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="3"/>
-      <c r="H9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="J9" t="s">
+        <v>70</v>
+      </c>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="9" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -913,29 +1082,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A713E281-DBD7-43C4-AF39-0BDD7430D7F5}">
-  <dimension ref="A1:N20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A713E281-DBD7-43C4-AF39-0BDD7430D7F5}">
+  <dimension ref="A1:AN42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="AK5" sqref="AK5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="14" width="8.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="6" width="8.7109375" style="1" customWidth="1"/>
+    <col min="7" max="18" width="8.42578125" style="1" customWidth="1"/>
+    <col min="27" max="38" width="6.7109375" customWidth="1"/>
+    <col min="40" max="40" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>41</v>
       </c>
@@ -975,425 +1147,1471 @@
       <c r="N2" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="O2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V2">
+        <v>2018</v>
+      </c>
+      <c r="W2">
+        <f>+V2+1</f>
+        <v>2019</v>
+      </c>
+      <c r="X2">
+        <f t="shared" ref="X2:AM2" si="0">+W2+1</f>
+        <v>2020</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="AI2">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="AJ2">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="AK2">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="AL2">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="AM2">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="E3" s="1">
+        <f>CORREL(F4:M4,F5:M5)</f>
+        <v>0.93033547439346964</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="18">
+        <v>154</v>
+      </c>
+      <c r="G4" s="18">
+        <v>3462</v>
+      </c>
+      <c r="H4" s="18">
+        <v>7838</v>
+      </c>
+      <c r="I4" s="18">
+        <v>12977</v>
+      </c>
+      <c r="J4" s="18">
+        <v>12504</v>
+      </c>
+      <c r="K4" s="18">
+        <v>13227</v>
+      </c>
+      <c r="L4" s="18">
+        <v>8848</v>
+      </c>
+      <c r="M4" s="18">
+        <v>4402</v>
+      </c>
+      <c r="N4" s="18">
+        <v>11329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="17">
+        <v>280</v>
+      </c>
+      <c r="G5" s="10">
+        <v>2027.5</v>
+      </c>
+      <c r="H5" s="10">
         <v>5280.5</v>
       </c>
-      <c r="E3" s="13">
+      <c r="I5" s="17">
         <v>6040.1</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13">
+      <c r="J5" s="17">
+        <v>5525.9</v>
+      </c>
+      <c r="K5" s="17">
+        <v>6362.2</v>
+      </c>
+      <c r="L5" s="10">
         <v>3166.3</v>
       </c>
-      <c r="I3" s="13">
+      <c r="M5" s="10">
         <v>3394.8</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-    </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+      <c r="N5" s="10">
+        <f>+N4*0.5</f>
+        <v>5664.5</v>
+      </c>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="Y5" s="2">
+        <f>SUM(G5:J5)</f>
+        <v>18874</v>
+      </c>
+      <c r="Z5" s="2">
+        <f>SUM(K5:N5)</f>
+        <v>18587.8</v>
+      </c>
+      <c r="AA5" s="19">
+        <f>+Z5*0.5</f>
+        <v>9293.9</v>
+      </c>
+      <c r="AB5" s="19">
+        <f>+AA5*0.9</f>
+        <v>8364.51</v>
+      </c>
+      <c r="AC5" s="19">
+        <f>+AB5*0.5</f>
+        <v>4182.2550000000001</v>
+      </c>
+      <c r="AD5" s="19">
+        <f t="shared" ref="AD5:AL5" si="1">+AC5*0.5</f>
+        <v>2091.1275000000001</v>
+      </c>
+      <c r="AE5" s="19">
+        <f t="shared" si="1"/>
+        <v>1045.56375</v>
+      </c>
+      <c r="AF5" s="19">
+        <f t="shared" si="1"/>
+        <v>522.78187500000001</v>
+      </c>
+      <c r="AG5" s="19">
+        <f t="shared" si="1"/>
+        <v>261.39093750000001</v>
+      </c>
+      <c r="AH5" s="19">
+        <f t="shared" si="1"/>
+        <v>130.69546875</v>
+      </c>
+      <c r="AI5" s="19">
+        <f t="shared" si="1"/>
+        <v>65.347734375000002</v>
+      </c>
+      <c r="AJ5" s="19">
+        <f t="shared" si="1"/>
+        <v>32.673867187500001</v>
+      </c>
+      <c r="AK5" s="19">
+        <f t="shared" si="1"/>
+        <v>16.33693359375</v>
+      </c>
+      <c r="AL5" s="19">
+        <f t="shared" si="1"/>
+        <v>8.1684667968750002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="G6" s="10">
+        <v>20.9</v>
+      </c>
+      <c r="H6" s="10">
         <v>28</v>
       </c>
-      <c r="E4" s="13">
+      <c r="I6" s="10">
         <v>47.2</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13">
+      <c r="J6" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="K6" s="10">
+        <v>12.4</v>
+      </c>
+      <c r="L6" s="10">
         <v>30.2</v>
       </c>
-      <c r="I4" s="13">
+      <c r="M6" s="10">
         <v>66.400000000000006</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-    </row>
-    <row r="5" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="15" t="s">
+      <c r="N6" s="10">
+        <f>AVERAGE(J6:M6)</f>
+        <v>28.900000000000002</v>
+      </c>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+    </row>
+    <row r="7" spans="1:39" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16">
-        <f>+D3+D4</f>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13">
+        <f>+F5+F6</f>
+        <v>345.4</v>
+      </c>
+      <c r="G7" s="13">
+        <f>+G5+G6</f>
+        <v>2048.4</v>
+      </c>
+      <c r="H7" s="13">
+        <f>+H5+H6</f>
         <v>5308.5</v>
       </c>
-      <c r="E5" s="16">
-        <f>+E3+E4</f>
+      <c r="I7" s="13">
+        <f>+I5+I6</f>
         <v>6087.3</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16">
-        <f>+H3+H4</f>
+      <c r="J7" s="13">
+        <f>+J5+J6</f>
+        <v>5532.5</v>
+      </c>
+      <c r="K7" s="13">
+        <f>+K5+K6</f>
+        <v>6374.5999999999995</v>
+      </c>
+      <c r="L7" s="13">
+        <f>+L5+L6</f>
         <v>3196.5</v>
       </c>
-      <c r="I5" s="16">
-        <f>+I3+I4</f>
+      <c r="M7" s="13">
+        <f>+M5+M6</f>
         <v>3461.2000000000003</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-    </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+      <c r="N7" s="13">
+        <f>+N5+N6</f>
+        <v>5693.4</v>
+      </c>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="AA7" s="12">
+        <f>+AA5+AA6</f>
+        <v>9293.9</v>
+      </c>
+      <c r="AB7" s="12">
+        <f t="shared" ref="AB7:AL7" si="2">+AB5+AB6</f>
+        <v>8364.51</v>
+      </c>
+      <c r="AC7" s="12">
+        <f t="shared" si="2"/>
+        <v>4182.2550000000001</v>
+      </c>
+      <c r="AD7" s="12">
+        <f t="shared" si="2"/>
+        <v>2091.1275000000001</v>
+      </c>
+      <c r="AE7" s="12">
+        <f t="shared" si="2"/>
+        <v>1045.56375</v>
+      </c>
+      <c r="AF7" s="12">
+        <f t="shared" si="2"/>
+        <v>522.78187500000001</v>
+      </c>
+      <c r="AG7" s="12">
+        <f t="shared" si="2"/>
+        <v>261.39093750000001</v>
+      </c>
+      <c r="AH7" s="12">
+        <f t="shared" si="2"/>
+        <v>130.69546875</v>
+      </c>
+      <c r="AI7" s="12">
+        <f t="shared" si="2"/>
+        <v>65.347734375000002</v>
+      </c>
+      <c r="AJ7" s="12">
+        <f t="shared" si="2"/>
+        <v>32.673867187500001</v>
+      </c>
+      <c r="AK7" s="12">
+        <f t="shared" si="2"/>
+        <v>16.33693359375</v>
+      </c>
+      <c r="AL7" s="12">
+        <f t="shared" si="2"/>
+        <v>8.1684667968750002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10">
+        <v>41</v>
+      </c>
+      <c r="G8" s="10">
+        <v>233.1</v>
+      </c>
+      <c r="H8" s="10">
         <v>883.8</v>
       </c>
-      <c r="E6" s="13">
+      <c r="I8" s="10">
         <v>1211.4000000000001</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13">
+      <c r="J8" s="10">
+        <v>583.20000000000005</v>
+      </c>
+      <c r="K8" s="10">
+        <v>1294.0999999999999</v>
+      </c>
+      <c r="L8" s="10">
         <v>764.6</v>
       </c>
-      <c r="I6" s="13">
+      <c r="M8" s="10">
         <v>752.8</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-    </row>
-    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+    </row>
+    <row r="9" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13">
-        <f>+D5-D6</f>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10">
+        <f>+F7-F8</f>
+        <v>304.39999999999998</v>
+      </c>
+      <c r="G9" s="10">
+        <f>+G7-G8</f>
+        <v>1815.3000000000002</v>
+      </c>
+      <c r="H9" s="10">
+        <f>+H7-H8</f>
         <v>4424.7</v>
       </c>
-      <c r="E7" s="13">
-        <f>+E5-E6</f>
+      <c r="I9" s="10">
+        <f>+I7-I8</f>
         <v>4875.8999999999996</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13">
-        <f>+H5-H6</f>
+      <c r="J9" s="10">
+        <f>+J7-J8</f>
+        <v>4949.3</v>
+      </c>
+      <c r="K9" s="10">
+        <f>+K7-K8</f>
+        <v>5080.5</v>
+      </c>
+      <c r="L9" s="10">
+        <f>+L7-L8</f>
         <v>2431.9</v>
       </c>
-      <c r="I7" s="13">
-        <f>+I5-I6</f>
+      <c r="M9" s="10">
+        <f>+M7-M8</f>
         <v>2708.4000000000005</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-    </row>
-    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="AA9" s="2">
+        <f>+AA7*0.8</f>
+        <v>7435.12</v>
+      </c>
+      <c r="AB9" s="2">
+        <f t="shared" ref="AB9:AL9" si="3">+AB7*0.8</f>
+        <v>6691.6080000000002</v>
+      </c>
+      <c r="AC9" s="2">
+        <f t="shared" si="3"/>
+        <v>3345.8040000000001</v>
+      </c>
+      <c r="AD9" s="2">
+        <f t="shared" si="3"/>
+        <v>1672.902</v>
+      </c>
+      <c r="AE9" s="2">
+        <f t="shared" si="3"/>
+        <v>836.45100000000002</v>
+      </c>
+      <c r="AF9" s="2">
+        <f t="shared" si="3"/>
+        <v>418.22550000000001</v>
+      </c>
+      <c r="AG9" s="2">
+        <f t="shared" si="3"/>
+        <v>209.11275000000001</v>
+      </c>
+      <c r="AH9" s="2">
+        <f t="shared" si="3"/>
+        <v>104.556375</v>
+      </c>
+      <c r="AI9" s="2">
+        <f t="shared" si="3"/>
+        <v>52.278187500000001</v>
+      </c>
+      <c r="AJ9" s="2">
+        <f t="shared" si="3"/>
+        <v>26.139093750000001</v>
+      </c>
+      <c r="AK9" s="2">
+        <f t="shared" si="3"/>
+        <v>13.069546875</v>
+      </c>
+      <c r="AL9" s="2">
+        <f t="shared" si="3"/>
+        <v>6.5347734375000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10">
+        <v>257</v>
+      </c>
+      <c r="G10" s="10">
+        <v>216.2</v>
+      </c>
+      <c r="H10" s="10">
         <v>201.1</v>
       </c>
-      <c r="E8" s="13">
+      <c r="I10" s="10">
         <v>260.39999999999998</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13">
+      <c r="J10" s="10">
+        <v>271.5</v>
+      </c>
+      <c r="K10" s="10">
+        <v>285.8</v>
+      </c>
+      <c r="L10" s="10">
         <v>399.6</v>
       </c>
-      <c r="I8" s="13">
+      <c r="M10" s="10">
         <v>341.8</v>
       </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-    </row>
-    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+    </row>
+    <row r="11" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="G11" s="10">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H11" s="10">
         <v>13.3</v>
       </c>
-      <c r="E9" s="13">
+      <c r="I11" s="10">
         <v>10.5</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13">
+      <c r="J11" s="10">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="K11" s="10">
+        <v>14.3</v>
+      </c>
+      <c r="L11" s="10">
         <v>17.8</v>
       </c>
-      <c r="I9" s="13">
+      <c r="M11" s="17">
         <v>12.8</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-    </row>
-    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+    </row>
+    <row r="12" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10">
+        <v>35.9</v>
+      </c>
+      <c r="G12" s="10">
+        <v>38.9</v>
+      </c>
+      <c r="H12" s="10">
         <v>47.8</v>
       </c>
-      <c r="E10" s="13">
+      <c r="I12" s="10">
         <v>68.2</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13">
+      <c r="J12" s="10">
+        <v>130.9</v>
+      </c>
+      <c r="K12" s="10">
+        <v>90.8</v>
+      </c>
+      <c r="L12" s="10">
         <v>130</v>
       </c>
-      <c r="I10" s="13">
+      <c r="M12" s="10">
         <v>141</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-    </row>
-    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="AA12" s="2">
+        <v>300</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>300</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>300</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>300</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>200</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13">
-        <f>+D8+D9+D10</f>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10">
+        <f>+F10+F11+F12</f>
+        <v>299.59999999999997</v>
+      </c>
+      <c r="G13" s="10">
+        <f>+G10+G11+G12</f>
+        <v>263.79999999999995</v>
+      </c>
+      <c r="H13" s="10">
+        <f>+H10+H11+H12</f>
         <v>262.2</v>
       </c>
-      <c r="E11" s="13">
-        <f>+E8+E9+E10</f>
+      <c r="I13" s="10">
+        <f>+I10+I11+I12</f>
         <v>339.09999999999997</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13">
-        <f>+H8+H9+H10</f>
+      <c r="J13" s="10">
+        <f>+J10+J11+J12</f>
+        <v>420.29999999999995</v>
+      </c>
+      <c r="K13" s="10">
+        <f>+K10+K11+K12</f>
+        <v>390.90000000000003</v>
+      </c>
+      <c r="L13" s="10">
+        <f>+L10+L11+L12</f>
         <v>547.40000000000009</v>
       </c>
-      <c r="I11" s="13">
-        <f>+I8+I9+I10</f>
+      <c r="M13" s="10">
+        <f>+M10+M11+M12</f>
         <v>495.6</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-    </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="AA13" s="2">
+        <f>+AA12+AA11+AA10</f>
+        <v>300</v>
+      </c>
+      <c r="AB13" s="2">
+        <f t="shared" ref="AB13:AL13" si="4">+AB12+AB11+AB10</f>
+        <v>300</v>
+      </c>
+      <c r="AC13" s="2">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="AD13" s="2">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="AE13" s="2">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="AF13" s="2">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="AG13" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="AH13" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13">
-        <f>+D7-D11</f>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10">
+        <f>+F9-F13</f>
+        <v>4.8000000000000114</v>
+      </c>
+      <c r="G14" s="10">
+        <f>+G9-G13</f>
+        <v>1551.5000000000002</v>
+      </c>
+      <c r="H14" s="10">
+        <f>+H9-H13</f>
         <v>4162.5</v>
       </c>
-      <c r="E12" s="13">
-        <f>+E7-E11</f>
+      <c r="I14" s="10">
+        <f>+I9-I13</f>
         <v>4536.7999999999993</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13">
-        <f>+H7-H11</f>
+      <c r="J14" s="10">
+        <f>+J9-J13</f>
+        <v>4529</v>
+      </c>
+      <c r="K14" s="10">
+        <f>+K9-K13</f>
+        <v>4689.6000000000004</v>
+      </c>
+      <c r="L14" s="10">
+        <f>+L9-L13</f>
         <v>1884.5</v>
       </c>
-      <c r="I12" s="13">
-        <f>+I7-I11</f>
+      <c r="M14" s="10">
+        <f>+M9-M13</f>
         <v>2212.8000000000006</v>
       </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-    </row>
-    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="AA14" s="2">
+        <f>+AA9-AA13</f>
+        <v>7135.12</v>
+      </c>
+      <c r="AB14" s="2">
+        <f t="shared" ref="AB14:AL14" si="5">+AB9-AB13</f>
+        <v>6391.6080000000002</v>
+      </c>
+      <c r="AC14" s="2">
+        <f t="shared" si="5"/>
+        <v>3045.8040000000001</v>
+      </c>
+      <c r="AD14" s="2">
+        <f t="shared" si="5"/>
+        <v>1372.902</v>
+      </c>
+      <c r="AE14" s="2">
+        <f t="shared" si="5"/>
+        <v>636.45100000000002</v>
+      </c>
+      <c r="AF14" s="2">
+        <f t="shared" si="5"/>
+        <v>218.22550000000001</v>
+      </c>
+      <c r="AG14" s="2">
+        <f t="shared" si="5"/>
+        <v>109.11275000000001</v>
+      </c>
+      <c r="AH14" s="2">
+        <f t="shared" si="5"/>
+        <v>104.556375</v>
+      </c>
+      <c r="AI14" s="2">
+        <f t="shared" si="5"/>
+        <v>52.278187500000001</v>
+      </c>
+      <c r="AJ14" s="2">
+        <f t="shared" si="5"/>
+        <v>26.139093750000001</v>
+      </c>
+      <c r="AK14" s="2">
+        <f t="shared" si="5"/>
+        <v>13.069546875</v>
+      </c>
+      <c r="AL14" s="2">
+        <f t="shared" si="5"/>
+        <v>6.5347734375000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10">
+        <f>-1.1+240.5+0.5-39.1</f>
+        <v>200.8</v>
+      </c>
+      <c r="G15" s="10">
+        <f>111.3-0.6+24.8-44.7</f>
+        <v>90.8</v>
+      </c>
+      <c r="H15" s="10">
         <f>-0.3+36.2+0.3-175.9</f>
         <v>-139.69999999999999</v>
       </c>
-      <c r="E13" s="13">
+      <c r="I15" s="10">
         <f>-26.4+213.1+26.6-82.7</f>
         <v>130.59999999999997</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13">
+      <c r="J15" s="10">
+        <f>-67.1+237.8+31.9-17.7</f>
+        <v>184.90000000000003</v>
+      </c>
+      <c r="K15" s="10">
+        <f>272.1-6.7+134.7-71.6</f>
+        <v>328.5</v>
+      </c>
+      <c r="L15" s="10">
         <f>-240.7+565.8+115.5-5.8</f>
         <v>434.79999999999995</v>
       </c>
-      <c r="I13" s="13">
+      <c r="M15" s="10">
         <f>60.9-4.3-285.1+459.8</f>
         <v>231.29999999999998</v>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-    </row>
-    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+    </row>
+    <row r="16" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13">
-        <f>+D12+D13</f>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10">
+        <f>+F14+F15</f>
+        <v>205.60000000000002</v>
+      </c>
+      <c r="G16" s="10">
+        <f>+G14+G15</f>
+        <v>1642.3000000000002</v>
+      </c>
+      <c r="H16" s="10">
+        <f>+H14+H15</f>
         <v>4022.8</v>
       </c>
-      <c r="E14" s="13">
-        <f>+E12+E13</f>
+      <c r="I16" s="10">
+        <f>+I14+I15</f>
         <v>4667.3999999999996</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13">
-        <f>+H12+H13</f>
+      <c r="J16" s="10">
+        <f>+J14+J15</f>
+        <v>4713.8999999999996</v>
+      </c>
+      <c r="K16" s="10">
+        <f>+K14+K15</f>
+        <v>5018.1000000000004</v>
+      </c>
+      <c r="L16" s="10">
+        <f>+L14+L15</f>
         <v>2319.3000000000002</v>
       </c>
-      <c r="I14" s="13">
-        <f>+I12+I13</f>
+      <c r="M16" s="10">
+        <f>+M14+M15</f>
         <v>2444.1000000000008</v>
       </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-    </row>
-    <row r="15" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="AA16" s="2">
+        <f>+AA14+AA15</f>
+        <v>7135.12</v>
+      </c>
+      <c r="AB16" s="2">
+        <f t="shared" ref="AB16:AL16" si="6">+AB14+AB15</f>
+        <v>6391.6080000000002</v>
+      </c>
+      <c r="AC16" s="2">
+        <f t="shared" si="6"/>
+        <v>3045.8040000000001</v>
+      </c>
+      <c r="AD16" s="2">
+        <f t="shared" si="6"/>
+        <v>1372.902</v>
+      </c>
+      <c r="AE16" s="2">
+        <f t="shared" si="6"/>
+        <v>636.45100000000002</v>
+      </c>
+      <c r="AF16" s="2">
+        <f t="shared" si="6"/>
+        <v>218.22550000000001</v>
+      </c>
+      <c r="AG16" s="2">
+        <f t="shared" si="6"/>
+        <v>109.11275000000001</v>
+      </c>
+      <c r="AH16" s="2">
+        <f t="shared" si="6"/>
+        <v>104.556375</v>
+      </c>
+      <c r="AI16" s="2">
+        <f t="shared" si="6"/>
+        <v>52.278187500000001</v>
+      </c>
+      <c r="AJ16" s="2">
+        <f t="shared" si="6"/>
+        <v>26.139093750000001</v>
+      </c>
+      <c r="AK16" s="2">
+        <f t="shared" si="6"/>
+        <v>13.069546875</v>
+      </c>
+      <c r="AL16" s="2">
+        <f t="shared" si="6"/>
+        <v>6.5347734375000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10">
+        <v>-161.30000000000001</v>
+      </c>
+      <c r="G17" s="10">
+        <v>514.20000000000005</v>
+      </c>
+      <c r="H17" s="10">
         <v>1235.5999999999999</v>
       </c>
-      <c r="E15" s="13">
+      <c r="I17" s="10">
         <v>1456.4</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13">
+      <c r="J17" s="10">
+        <v>1547.7</v>
+      </c>
+      <c r="K17" s="10">
+        <v>1319.3</v>
+      </c>
+      <c r="L17" s="10">
         <v>647.29999999999995</v>
       </c>
-      <c r="I15" s="13">
+      <c r="M17" s="10">
         <v>659.2</v>
       </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-    </row>
-    <row r="16" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="AA17" s="2">
+        <f>+AA16*0.25</f>
+        <v>1783.78</v>
+      </c>
+      <c r="AB17" s="2">
+        <f t="shared" ref="AB17:AL17" si="7">+AB16*0.25</f>
+        <v>1597.902</v>
+      </c>
+      <c r="AC17" s="2">
+        <f t="shared" si="7"/>
+        <v>761.45100000000002</v>
+      </c>
+      <c r="AD17" s="2">
+        <f t="shared" si="7"/>
+        <v>343.22550000000001</v>
+      </c>
+      <c r="AE17" s="2">
+        <f t="shared" si="7"/>
+        <v>159.11275000000001</v>
+      </c>
+      <c r="AF17" s="2">
+        <f t="shared" si="7"/>
+        <v>54.556375000000003</v>
+      </c>
+      <c r="AG17" s="2">
+        <f t="shared" si="7"/>
+        <v>27.278187500000001</v>
+      </c>
+      <c r="AH17" s="2">
+        <f t="shared" si="7"/>
+        <v>26.139093750000001</v>
+      </c>
+      <c r="AI17" s="2">
+        <f t="shared" si="7"/>
+        <v>13.069546875</v>
+      </c>
+      <c r="AJ17" s="2">
+        <f t="shared" si="7"/>
+        <v>6.5347734375000002</v>
+      </c>
+      <c r="AK17" s="2">
+        <f t="shared" si="7"/>
+        <v>3.2673867187500001</v>
+      </c>
+      <c r="AL17" s="2">
+        <f t="shared" si="7"/>
+        <v>1.633693359375</v>
+      </c>
+    </row>
+    <row r="18" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13">
-        <f>+D14-D15</f>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10">
+        <f>+F16-F17</f>
+        <v>366.90000000000003</v>
+      </c>
+      <c r="G18" s="10">
+        <f>+G16-G17</f>
+        <v>1128.1000000000001</v>
+      </c>
+      <c r="H18" s="10">
+        <f>+H16-H17</f>
         <v>2787.2000000000003</v>
       </c>
-      <c r="E16" s="13">
-        <f>+E14-E15</f>
+      <c r="I18" s="10">
+        <f>+I16-I17</f>
         <v>3210.9999999999995</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13">
-        <f>+H14-H15</f>
+      <c r="J18" s="10">
+        <f>+J16-J17</f>
+        <v>3166.2</v>
+      </c>
+      <c r="K18" s="10">
+        <f>+K16-K17</f>
+        <v>3698.8</v>
+      </c>
+      <c r="L18" s="10">
+        <f>+L16-L17</f>
         <v>1672.0000000000002</v>
       </c>
-      <c r="I16" s="13">
-        <f>+I14-I15</f>
+      <c r="M18" s="10">
+        <f>+M16-M17</f>
         <v>1784.9000000000008</v>
       </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="AA18" s="2">
+        <f>+AA16-AA17</f>
+        <v>5351.34</v>
+      </c>
+      <c r="AB18" s="2">
+        <f t="shared" ref="AB18:AL18" si="8">+AB16-AB17</f>
+        <v>4793.7060000000001</v>
+      </c>
+      <c r="AC18" s="2">
+        <f t="shared" si="8"/>
+        <v>2284.3530000000001</v>
+      </c>
+      <c r="AD18" s="2">
+        <f t="shared" si="8"/>
+        <v>1029.6765</v>
+      </c>
+      <c r="AE18" s="2">
+        <f t="shared" si="8"/>
+        <v>477.33825000000002</v>
+      </c>
+      <c r="AF18" s="2">
+        <f t="shared" si="8"/>
+        <v>163.66912500000001</v>
+      </c>
+      <c r="AG18" s="2">
+        <f t="shared" si="8"/>
+        <v>81.834562500000004</v>
+      </c>
+      <c r="AH18" s="2">
+        <f t="shared" si="8"/>
+        <v>78.417281250000002</v>
+      </c>
+      <c r="AI18" s="2">
+        <f t="shared" si="8"/>
+        <v>39.208640625000001</v>
+      </c>
+      <c r="AJ18" s="2">
+        <f t="shared" si="8"/>
+        <v>19.604320312500001</v>
+      </c>
+      <c r="AK18" s="2">
+        <f t="shared" si="8"/>
+        <v>9.8021601562500003</v>
+      </c>
+      <c r="AL18" s="2">
+        <f t="shared" si="8"/>
+        <v>4.9010800781250001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="H17" s="14">
-        <f>+H16/H18</f>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11">
+        <f>+L18/L20</f>
         <v>6.8895893854173114</v>
       </c>
     </row>
-    <row r="18" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
+    <row r="20" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10">
         <v>242.685</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+    </row>
+    <row r="21" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AM21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN21" s="20">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="22" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H20" s="17">
-        <f t="shared" ref="H20" si="0">+H5/D5-1</f>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="J22" s="14">
+        <f>+J7/F7-1</f>
+        <v>15.017660683265781</v>
+      </c>
+      <c r="K22" s="14">
+        <f>+K7/G7-1</f>
+        <v>2.1119898457332549</v>
+      </c>
+      <c r="L22" s="14">
+        <f>+L7/H7-1</f>
         <v>-0.3978525007064142</v>
       </c>
-      <c r="I20" s="17">
-        <f>+I5/E5-1</f>
+      <c r="M22" s="14">
+        <f>+M7/I7-1</f>
         <v>-0.43140637064051379</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN22" s="2">
+        <f>NPV(AN21,AA18:AL18)+Main!K5-Main!K6</f>
+        <v>24701.979461112125</v>
+      </c>
+    </row>
+    <row r="23" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="14">
+        <f>+F5/F4</f>
+        <v>1.8181818181818181</v>
+      </c>
+      <c r="G23" s="14">
+        <f t="shared" ref="G23:M23" si="9">+G5/G4</f>
+        <v>0.58564413633737722</v>
+      </c>
+      <c r="H23" s="14">
+        <f t="shared" si="9"/>
+        <v>0.67370502679254907</v>
+      </c>
+      <c r="I23" s="14">
+        <f t="shared" si="9"/>
+        <v>0.46544655929721818</v>
+      </c>
+      <c r="J23" s="14">
+        <f t="shared" si="9"/>
+        <v>0.44193058221369158</v>
+      </c>
+      <c r="K23" s="14">
+        <f t="shared" si="9"/>
+        <v>0.48100098283813408</v>
+      </c>
+      <c r="L23" s="14">
+        <f t="shared" si="9"/>
+        <v>0.35785488245931285</v>
+      </c>
+      <c r="M23" s="14">
+        <f t="shared" si="9"/>
+        <v>0.77119491140390739</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN23" s="16">
+        <f>AN22/Main!K3</f>
+        <v>101.78601332971044</v>
+      </c>
+    </row>
+    <row r="24" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="14">
+        <f t="shared" ref="F24:M24" si="10">+F9/F7</f>
+        <v>0.88129704690214239</v>
+      </c>
+      <c r="G24" s="14">
+        <f t="shared" si="10"/>
+        <v>0.88620386643233751</v>
+      </c>
+      <c r="H24" s="14">
+        <f t="shared" si="10"/>
+        <v>0.83351229160779883</v>
+      </c>
+      <c r="I24" s="14">
+        <f t="shared" si="10"/>
+        <v>0.80099551525306778</v>
+      </c>
+      <c r="J24" s="14">
+        <f t="shared" si="10"/>
+        <v>0.89458653411658384</v>
+      </c>
+      <c r="K24" s="14">
+        <f t="shared" si="10"/>
+        <v>0.79699118376054978</v>
+      </c>
+      <c r="L24" s="14">
+        <f t="shared" si="10"/>
+        <v>0.76080087595807921</v>
+      </c>
+      <c r="M24" s="14">
+        <f>+M9/M7</f>
+        <v>0.78250317808852432</v>
+      </c>
+    </row>
+    <row r="25" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="14">
+        <f>+F17/F16</f>
+        <v>-0.78453307392996108</v>
+      </c>
+      <c r="G25" s="14">
+        <f>+G17/G16</f>
+        <v>0.3130974852341229</v>
+      </c>
+      <c r="H25" s="14">
+        <f>+H17/H16</f>
+        <v>0.30714924927910903</v>
+      </c>
+      <c r="I25" s="14">
+        <f>+I17/I16</f>
+        <v>0.31203667995029355</v>
+      </c>
+      <c r="J25" s="14">
+        <f>+J17/J16</f>
+        <v>0.3283268631069815</v>
+      </c>
+      <c r="K25" s="14">
+        <f>+K17/K16</f>
+        <v>0.26290827205516032</v>
+      </c>
+      <c r="L25" s="14">
+        <f t="shared" ref="L25:M25" si="11">+L17/L16</f>
+        <v>0.27909282973310906</v>
+      </c>
+      <c r="M25" s="14">
+        <f t="shared" si="11"/>
+        <v>0.26971073196677708</v>
+      </c>
+    </row>
+    <row r="27" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="M27" s="15">
+        <f>13423.7+4.8+52.8</f>
+        <v>13481.3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M28" s="15">
+        <v>7309.4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="M29" s="15">
+        <v>294.8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="M30" s="15">
+        <f>73+0.4+162.7+280.6</f>
+        <v>516.70000000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="M31" s="15">
+        <v>343.7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="M32" s="15">
+        <v>488.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="M33" s="15">
+        <v>226.2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="M35" s="10">
+        <f>37+237+686.9+6.1</f>
+        <v>967</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="M36" s="10">
+        <f>104.8+3+17.4</f>
+        <v>125.19999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="M37" s="10">
+        <f>673.9+53.8</f>
+        <v>727.69999999999993</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="M38" s="10">
+        <f>768.1+7.3</f>
+        <v>775.4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="M39" s="10">
+        <f>1387.5+8+7</f>
+        <v>1402.5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="M40" s="10">
+        <v>296.5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="M41" s="10">
+        <v>18366.3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>68</v>
+      </c>
+      <c r="M42" s="10">
+        <f>SUM(M35:M41)</f>
+        <v>22660.6</v>
       </c>
     </row>
   </sheetData>
@@ -1403,6 +2621,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/BNTX.xlsx
+++ b/BNTX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA710DF8-9011-40A6-9BA3-3BA6B38B21E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97036B8B-E626-4C7C-B373-A8EAF44261AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7545" yWindow="3810" windowWidth="29475" windowHeight="16680" xr2:uid="{50B2AA5C-A5FB-486F-967D-0A2DB26A44B5}"/>
+    <workbookView xWindow="-27015" yWindow="750" windowWidth="26490" windowHeight="19650" xr2:uid="{50B2AA5C-A5FB-486F-967D-0A2DB26A44B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>Price</t>
   </si>
@@ -304,13 +304,16 @@
   </si>
   <si>
     <t>Stock</t>
+  </si>
+  <si>
+    <t>Q224</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -336,12 +339,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -463,7 +460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -493,10 +490,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -518,7 +512,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{84268218-4F6B-434A-94C3-20533F4DB21F}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -592,9 +588,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -632,7 +628,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -738,7 +734,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -880,7 +876,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -898,7 +894,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A2D0BB-EC2F-4419-B5B8-5A9E61402036}">
   <dimension ref="B2:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -931,14 +929,14 @@
       <c r="G2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="20" t="s">
         <v>16</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="16">
-        <v>131</v>
+        <v>87.2</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -954,7 +952,7 @@
       <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="21" t="s">
         <v>18</v>
       </c>
       <c r="J3" t="s">
@@ -964,7 +962,7 @@
         <v>242.68540100000001</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -974,13 +972,13 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="21"/>
+      <c r="H4" s="20"/>
       <c r="J4" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>31791.787531000002</v>
+        <v>21162.166967200003</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -988,15 +986,16 @@
       <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="22"/>
+      <c r="H5" s="21"/>
       <c r="J5" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="2">
-        <v>13481</v>
+        <f>10376.7+6919+1386.1</f>
+        <v>18681.8</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
@@ -1004,28 +1003,29 @@
       <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="22"/>
+      <c r="H6" s="21"/>
       <c r="J6" t="s">
         <v>6</v>
       </c>
       <c r="K6" s="2">
-        <v>967</v>
+        <f>42.1+146+35.3</f>
+        <v>223.39999999999998</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="22"/>
+      <c r="H7" s="21"/>
       <c r="J7" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>19277.787531000002</v>
+        <v>2703.7669672000034</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
@@ -1035,7 +1035,7 @@
       <c r="E8" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="22"/>
+      <c r="H8" s="21"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
@@ -1048,7 +1048,7 @@
       <c r="E9" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="22"/>
+      <c r="H9" s="21"/>
       <c r="J9" t="s">
         <v>70</v>
       </c>
@@ -1063,7 +1063,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="23"/>
+      <c r="H10" s="22"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="G12" s="9" t="s">
@@ -1241,31 +1241,31 @@
       <c r="B4" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="17">
         <v>154</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="17">
         <v>3462</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="17">
         <v>7838</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="17">
         <v>12977</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="17">
         <v>12504</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="17">
         <v>13227</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="17">
         <v>8848</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="17">
         <v>4402</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="17">
         <v>11329</v>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="17">
+      <c r="F5" s="10">
         <v>280</v>
       </c>
       <c r="G5" s="10">
@@ -1285,13 +1285,13 @@
       <c r="H5" s="10">
         <v>5280.5</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="10">
         <v>6040.1</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="10">
         <v>5525.9</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="10">
         <v>6362.2</v>
       </c>
       <c r="L5" s="10">
@@ -1316,51 +1316,51 @@
         <f>SUM(K5:N5)</f>
         <v>18587.8</v>
       </c>
-      <c r="AA5" s="19">
+      <c r="AA5" s="18">
         <f>+Z5*0.5</f>
         <v>9293.9</v>
       </c>
-      <c r="AB5" s="19">
+      <c r="AB5" s="18">
         <f>+AA5*0.9</f>
         <v>8364.51</v>
       </c>
-      <c r="AC5" s="19">
+      <c r="AC5" s="18">
         <f>+AB5*0.5</f>
         <v>4182.2550000000001</v>
       </c>
-      <c r="AD5" s="19">
+      <c r="AD5" s="18">
         <f t="shared" ref="AD5:AL5" si="1">+AC5*0.5</f>
         <v>2091.1275000000001</v>
       </c>
-      <c r="AE5" s="19">
+      <c r="AE5" s="18">
         <f t="shared" si="1"/>
         <v>1045.56375</v>
       </c>
-      <c r="AF5" s="19">
+      <c r="AF5" s="18">
         <f t="shared" si="1"/>
         <v>522.78187500000001</v>
       </c>
-      <c r="AG5" s="19">
+      <c r="AG5" s="18">
         <f t="shared" si="1"/>
         <v>261.39093750000001</v>
       </c>
-      <c r="AH5" s="19">
+      <c r="AH5" s="18">
         <f t="shared" si="1"/>
         <v>130.69546875</v>
       </c>
-      <c r="AI5" s="19">
+      <c r="AI5" s="18">
         <f t="shared" si="1"/>
         <v>65.347734375000002</v>
       </c>
-      <c r="AJ5" s="19">
+      <c r="AJ5" s="18">
         <f t="shared" si="1"/>
         <v>32.673867187500001</v>
       </c>
-      <c r="AK5" s="19">
+      <c r="AK5" s="18">
         <f t="shared" si="1"/>
         <v>16.33693359375</v>
       </c>
-      <c r="AL5" s="19">
+      <c r="AL5" s="18">
         <f t="shared" si="1"/>
         <v>8.1684667968750002</v>
       </c>
@@ -1413,39 +1413,39 @@
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13">
-        <f>+F5+F6</f>
+        <f t="shared" ref="F7:N7" si="2">+F5+F6</f>
         <v>345.4</v>
       </c>
       <c r="G7" s="13">
-        <f>+G5+G6</f>
+        <f t="shared" si="2"/>
         <v>2048.4</v>
       </c>
       <c r="H7" s="13">
-        <f>+H5+H6</f>
+        <f t="shared" si="2"/>
         <v>5308.5</v>
       </c>
       <c r="I7" s="13">
-        <f>+I5+I6</f>
+        <f t="shared" si="2"/>
         <v>6087.3</v>
       </c>
       <c r="J7" s="13">
-        <f>+J5+J6</f>
+        <f t="shared" si="2"/>
         <v>5532.5</v>
       </c>
       <c r="K7" s="13">
-        <f>+K5+K6</f>
+        <f t="shared" si="2"/>
         <v>6374.5999999999995</v>
       </c>
       <c r="L7" s="13">
-        <f>+L5+L6</f>
+        <f t="shared" si="2"/>
         <v>3196.5</v>
       </c>
       <c r="M7" s="13">
-        <f>+M5+M6</f>
+        <f t="shared" si="2"/>
         <v>3461.2000000000003</v>
       </c>
       <c r="N7" s="13">
-        <f>+N5+N6</f>
+        <f t="shared" si="2"/>
         <v>5693.4</v>
       </c>
       <c r="O7" s="13"/>
@@ -1457,47 +1457,47 @@
         <v>9293.9</v>
       </c>
       <c r="AB7" s="12">
-        <f t="shared" ref="AB7:AL7" si="2">+AB5+AB6</f>
+        <f t="shared" ref="AB7:AL7" si="3">+AB5+AB6</f>
         <v>8364.51</v>
       </c>
       <c r="AC7" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4182.2550000000001</v>
       </c>
       <c r="AD7" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2091.1275000000001</v>
       </c>
       <c r="AE7" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1045.56375</v>
       </c>
       <c r="AF7" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>522.78187500000001</v>
       </c>
       <c r="AG7" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>261.39093750000001</v>
       </c>
       <c r="AH7" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130.69546875</v>
       </c>
       <c r="AI7" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>65.347734375000002</v>
       </c>
       <c r="AJ7" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32.673867187500001</v>
       </c>
       <c r="AK7" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.33693359375</v>
       </c>
       <c r="AL7" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.1684667968750002</v>
       </c>
     </row>
@@ -1546,35 +1546,35 @@
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10">
-        <f>+F7-F8</f>
+        <f t="shared" ref="F9:M9" si="4">+F7-F8</f>
         <v>304.39999999999998</v>
       </c>
       <c r="G9" s="10">
-        <f>+G7-G8</f>
+        <f t="shared" si="4"/>
         <v>1815.3000000000002</v>
       </c>
       <c r="H9" s="10">
-        <f>+H7-H8</f>
+        <f t="shared" si="4"/>
         <v>4424.7</v>
       </c>
       <c r="I9" s="10">
-        <f>+I7-I8</f>
+        <f t="shared" si="4"/>
         <v>4875.8999999999996</v>
       </c>
       <c r="J9" s="10">
-        <f>+J7-J8</f>
+        <f t="shared" si="4"/>
         <v>4949.3</v>
       </c>
       <c r="K9" s="10">
-        <f>+K7-K8</f>
+        <f t="shared" si="4"/>
         <v>5080.5</v>
       </c>
       <c r="L9" s="10">
-        <f>+L7-L8</f>
+        <f t="shared" si="4"/>
         <v>2431.9</v>
       </c>
       <c r="M9" s="10">
-        <f>+M7-M8</f>
+        <f t="shared" si="4"/>
         <v>2708.4000000000005</v>
       </c>
       <c r="N9" s="10"/>
@@ -1587,47 +1587,47 @@
         <v>7435.12</v>
       </c>
       <c r="AB9" s="2">
-        <f t="shared" ref="AB9:AL9" si="3">+AB7*0.8</f>
+        <f t="shared" ref="AB9:AL9" si="5">+AB7*0.8</f>
         <v>6691.6080000000002</v>
       </c>
       <c r="AC9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3345.8040000000001</v>
       </c>
       <c r="AD9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1672.902</v>
       </c>
       <c r="AE9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>836.45100000000002</v>
       </c>
       <c r="AF9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>418.22550000000001</v>
       </c>
       <c r="AG9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>209.11275000000001</v>
       </c>
       <c r="AH9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>104.556375</v>
       </c>
       <c r="AI9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>52.278187500000001</v>
       </c>
       <c r="AJ9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>26.139093750000001</v>
       </c>
       <c r="AK9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13.069546875</v>
       </c>
       <c r="AL9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.5347734375000002</v>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
       <c r="L11" s="10">
         <v>17.8</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="10">
         <v>12.8</v>
       </c>
       <c r="N11" s="10"/>
@@ -1771,35 +1771,35 @@
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10">
-        <f>+F10+F11+F12</f>
+        <f t="shared" ref="F13:M13" si="6">+F10+F11+F12</f>
         <v>299.59999999999997</v>
       </c>
       <c r="G13" s="10">
-        <f>+G10+G11+G12</f>
+        <f t="shared" si="6"/>
         <v>263.79999999999995</v>
       </c>
       <c r="H13" s="10">
-        <f>+H10+H11+H12</f>
+        <f t="shared" si="6"/>
         <v>262.2</v>
       </c>
       <c r="I13" s="10">
-        <f>+I10+I11+I12</f>
+        <f t="shared" si="6"/>
         <v>339.09999999999997</v>
       </c>
       <c r="J13" s="10">
-        <f>+J10+J11+J12</f>
+        <f t="shared" si="6"/>
         <v>420.29999999999995</v>
       </c>
       <c r="K13" s="10">
-        <f>+K10+K11+K12</f>
+        <f t="shared" si="6"/>
         <v>390.90000000000003</v>
       </c>
       <c r="L13" s="10">
-        <f>+L10+L11+L12</f>
+        <f t="shared" si="6"/>
         <v>547.40000000000009</v>
       </c>
       <c r="M13" s="10">
-        <f>+M10+M11+M12</f>
+        <f t="shared" si="6"/>
         <v>495.6</v>
       </c>
       <c r="N13" s="10"/>
@@ -1812,47 +1812,47 @@
         <v>300</v>
       </c>
       <c r="AB13" s="2">
-        <f t="shared" ref="AB13:AL13" si="4">+AB12+AB11+AB10</f>
+        <f t="shared" ref="AB13:AL13" si="7">+AB12+AB11+AB10</f>
         <v>300</v>
       </c>
       <c r="AC13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="AD13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="AE13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="AF13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="AG13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="AH13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1864,35 +1864,35 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10">
-        <f>+F9-F13</f>
+        <f t="shared" ref="F14:M14" si="8">+F9-F13</f>
         <v>4.8000000000000114</v>
       </c>
       <c r="G14" s="10">
-        <f>+G9-G13</f>
+        <f t="shared" si="8"/>
         <v>1551.5000000000002</v>
       </c>
       <c r="H14" s="10">
-        <f>+H9-H13</f>
+        <f t="shared" si="8"/>
         <v>4162.5</v>
       </c>
       <c r="I14" s="10">
-        <f>+I9-I13</f>
+        <f t="shared" si="8"/>
         <v>4536.7999999999993</v>
       </c>
       <c r="J14" s="10">
-        <f>+J9-J13</f>
+        <f t="shared" si="8"/>
         <v>4529</v>
       </c>
       <c r="K14" s="10">
-        <f>+K9-K13</f>
+        <f t="shared" si="8"/>
         <v>4689.6000000000004</v>
       </c>
       <c r="L14" s="10">
-        <f>+L9-L13</f>
+        <f t="shared" si="8"/>
         <v>1884.5</v>
       </c>
       <c r="M14" s="10">
-        <f>+M9-M13</f>
+        <f t="shared" si="8"/>
         <v>2212.8000000000006</v>
       </c>
       <c r="N14" s="10"/>
@@ -1905,47 +1905,47 @@
         <v>7135.12</v>
       </c>
       <c r="AB14" s="2">
-        <f t="shared" ref="AB14:AL14" si="5">+AB9-AB13</f>
+        <f t="shared" ref="AB14:AL14" si="9">+AB9-AB13</f>
         <v>6391.6080000000002</v>
       </c>
       <c r="AC14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3045.8040000000001</v>
       </c>
       <c r="AD14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1372.902</v>
       </c>
       <c r="AE14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>636.45100000000002</v>
       </c>
       <c r="AF14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>218.22550000000001</v>
       </c>
       <c r="AG14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>109.11275000000001</v>
       </c>
       <c r="AH14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>104.556375</v>
       </c>
       <c r="AI14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>52.278187500000001</v>
       </c>
       <c r="AJ14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>26.139093750000001</v>
       </c>
       <c r="AK14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>13.069546875</v>
       </c>
       <c r="AL14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6.5347734375000002</v>
       </c>
     </row>
@@ -2002,35 +2002,35 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10">
-        <f>+F14+F15</f>
+        <f t="shared" ref="F16:M16" si="10">+F14+F15</f>
         <v>205.60000000000002</v>
       </c>
       <c r="G16" s="10">
-        <f>+G14+G15</f>
+        <f t="shared" si="10"/>
         <v>1642.3000000000002</v>
       </c>
       <c r="H16" s="10">
-        <f>+H14+H15</f>
+        <f t="shared" si="10"/>
         <v>4022.8</v>
       </c>
       <c r="I16" s="10">
-        <f>+I14+I15</f>
+        <f t="shared" si="10"/>
         <v>4667.3999999999996</v>
       </c>
       <c r="J16" s="10">
-        <f>+J14+J15</f>
+        <f t="shared" si="10"/>
         <v>4713.8999999999996</v>
       </c>
       <c r="K16" s="10">
-        <f>+K14+K15</f>
+        <f t="shared" si="10"/>
         <v>5018.1000000000004</v>
       </c>
       <c r="L16" s="10">
-        <f>+L14+L15</f>
+        <f t="shared" si="10"/>
         <v>2319.3000000000002</v>
       </c>
       <c r="M16" s="10">
-        <f>+M14+M15</f>
+        <f t="shared" si="10"/>
         <v>2444.1000000000008</v>
       </c>
       <c r="N16" s="10"/>
@@ -2043,47 +2043,47 @@
         <v>7135.12</v>
       </c>
       <c r="AB16" s="2">
-        <f t="shared" ref="AB16:AL16" si="6">+AB14+AB15</f>
+        <f t="shared" ref="AB16:AL16" si="11">+AB14+AB15</f>
         <v>6391.6080000000002</v>
       </c>
       <c r="AC16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3045.8040000000001</v>
       </c>
       <c r="AD16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1372.902</v>
       </c>
       <c r="AE16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>636.45100000000002</v>
       </c>
       <c r="AF16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>218.22550000000001</v>
       </c>
       <c r="AG16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>109.11275000000001</v>
       </c>
       <c r="AH16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>104.556375</v>
       </c>
       <c r="AI16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>52.278187500000001</v>
       </c>
       <c r="AJ16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>26.139093750000001</v>
       </c>
       <c r="AK16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>13.069546875</v>
       </c>
       <c r="AL16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.5347734375000002</v>
       </c>
     </row>
@@ -2128,47 +2128,47 @@
         <v>1783.78</v>
       </c>
       <c r="AB17" s="2">
-        <f t="shared" ref="AB17:AL17" si="7">+AB16*0.25</f>
+        <f t="shared" ref="AB17:AL17" si="12">+AB16*0.25</f>
         <v>1597.902</v>
       </c>
       <c r="AC17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>761.45100000000002</v>
       </c>
       <c r="AD17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>343.22550000000001</v>
       </c>
       <c r="AE17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>159.11275000000001</v>
       </c>
       <c r="AF17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>54.556375000000003</v>
       </c>
       <c r="AG17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>27.278187500000001</v>
       </c>
       <c r="AH17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>26.139093750000001</v>
       </c>
       <c r="AI17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>13.069546875</v>
       </c>
       <c r="AJ17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>6.5347734375000002</v>
       </c>
       <c r="AK17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>3.2673867187500001</v>
       </c>
       <c r="AL17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.633693359375</v>
       </c>
     </row>
@@ -2180,35 +2180,35 @@
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10">
-        <f>+F16-F17</f>
+        <f t="shared" ref="F18:M18" si="13">+F16-F17</f>
         <v>366.90000000000003</v>
       </c>
       <c r="G18" s="10">
-        <f>+G16-G17</f>
+        <f t="shared" si="13"/>
         <v>1128.1000000000001</v>
       </c>
       <c r="H18" s="10">
-        <f>+H16-H17</f>
+        <f t="shared" si="13"/>
         <v>2787.2000000000003</v>
       </c>
       <c r="I18" s="10">
-        <f>+I16-I17</f>
+        <f t="shared" si="13"/>
         <v>3210.9999999999995</v>
       </c>
       <c r="J18" s="10">
-        <f>+J16-J17</f>
+        <f t="shared" si="13"/>
         <v>3166.2</v>
       </c>
       <c r="K18" s="10">
-        <f>+K16-K17</f>
+        <f t="shared" si="13"/>
         <v>3698.8</v>
       </c>
       <c r="L18" s="10">
-        <f>+L16-L17</f>
+        <f t="shared" si="13"/>
         <v>1672.0000000000002</v>
       </c>
       <c r="M18" s="10">
-        <f>+M16-M17</f>
+        <f t="shared" si="13"/>
         <v>1784.9000000000008</v>
       </c>
       <c r="N18" s="10"/>
@@ -2221,47 +2221,47 @@
         <v>5351.34</v>
       </c>
       <c r="AB18" s="2">
-        <f t="shared" ref="AB18:AL18" si="8">+AB16-AB17</f>
+        <f t="shared" ref="AB18:AL18" si="14">+AB16-AB17</f>
         <v>4793.7060000000001</v>
       </c>
       <c r="AC18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2284.3530000000001</v>
       </c>
       <c r="AD18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1029.6765</v>
       </c>
       <c r="AE18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>477.33825000000002</v>
       </c>
       <c r="AF18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>163.66912500000001</v>
       </c>
       <c r="AG18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>81.834562500000004</v>
       </c>
       <c r="AH18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>78.417281250000002</v>
       </c>
       <c r="AI18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>39.208640625000001</v>
       </c>
       <c r="AJ18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>19.604320312500001</v>
       </c>
       <c r="AK18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>9.8021601562500003</v>
       </c>
       <c r="AL18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>4.9010800781250001</v>
       </c>
     </row>
@@ -2307,7 +2307,7 @@
       <c r="AM21" t="s">
         <v>80</v>
       </c>
-      <c r="AN21" s="20">
+      <c r="AN21" s="19">
         <v>0.08</v>
       </c>
     </row>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="AN22" s="2">
         <f>NPV(AN21,AA18:AL18)+Main!K5-Main!K6</f>
-        <v>24701.979461112125</v>
+        <v>30646.379461112119</v>
       </c>
     </row>
     <row r="23" spans="2:40" x14ac:dyDescent="0.2">
@@ -2355,31 +2355,31 @@
         <v>1.8181818181818181</v>
       </c>
       <c r="G23" s="14">
-        <f t="shared" ref="G23:M23" si="9">+G5/G4</f>
+        <f t="shared" ref="G23:M23" si="15">+G5/G4</f>
         <v>0.58564413633737722</v>
       </c>
       <c r="H23" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.67370502679254907</v>
       </c>
       <c r="I23" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.46544655929721818</v>
       </c>
       <c r="J23" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.44193058221369158</v>
       </c>
       <c r="K23" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.48100098283813408</v>
       </c>
       <c r="L23" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.35785488245931285</v>
       </c>
       <c r="M23" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.77119491140390739</v>
       </c>
       <c r="AM23" t="s">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="AN23" s="16">
         <f>AN22/Main!K3</f>
-        <v>101.78601332971044</v>
+        <v>126.28027617166852</v>
       </c>
     </row>
     <row r="24" spans="2:40" x14ac:dyDescent="0.2">
@@ -2398,31 +2398,31 @@
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="14">
-        <f t="shared" ref="F24:M24" si="10">+F9/F7</f>
+        <f t="shared" ref="F24:L24" si="16">+F9/F7</f>
         <v>0.88129704690214239</v>
       </c>
       <c r="G24" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.88620386643233751</v>
       </c>
       <c r="H24" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.83351229160779883</v>
       </c>
       <c r="I24" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.80099551525306778</v>
       </c>
       <c r="J24" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.89458653411658384</v>
       </c>
       <c r="K24" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.79699118376054978</v>
       </c>
       <c r="L24" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.76080087595807921</v>
       </c>
       <c r="M24" s="14">
@@ -2438,35 +2438,35 @@
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="14">
-        <f>+F17/F16</f>
+        <f t="shared" ref="F25:K25" si="17">+F17/F16</f>
         <v>-0.78453307392996108</v>
       </c>
       <c r="G25" s="14">
-        <f>+G17/G16</f>
+        <f t="shared" si="17"/>
         <v>0.3130974852341229</v>
       </c>
       <c r="H25" s="14">
-        <f>+H17/H16</f>
+        <f t="shared" si="17"/>
         <v>0.30714924927910903</v>
       </c>
       <c r="I25" s="14">
-        <f>+I17/I16</f>
+        <f t="shared" si="17"/>
         <v>0.31203667995029355</v>
       </c>
       <c r="J25" s="14">
-        <f>+J17/J16</f>
+        <f t="shared" si="17"/>
         <v>0.3283268631069815</v>
       </c>
       <c r="K25" s="14">
-        <f>+K17/K16</f>
+        <f t="shared" si="17"/>
         <v>0.26290827205516032</v>
       </c>
       <c r="L25" s="14">
-        <f t="shared" ref="L25:M25" si="11">+L17/L16</f>
+        <f t="shared" ref="L25:M25" si="18">+L17/L16</f>
         <v>0.27909282973310906</v>
       </c>
       <c r="M25" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0.26971073196677708</v>
       </c>
     </row>

--- a/BNTX.xlsx
+++ b/BNTX.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97036B8B-E626-4C7C-B373-A8EAF44261AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1A35C4-FE43-4297-B702-9F462F28E8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27015" yWindow="750" windowWidth="26490" windowHeight="19650" xr2:uid="{50B2AA5C-A5FB-486F-967D-0A2DB26A44B5}"/>
+    <workbookView xWindow="12980" yWindow="2960" windowWidth="25090" windowHeight="16580" xr2:uid="{50B2AA5C-A5FB-486F-967D-0A2DB26A44B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
     <sheet name="Comirnaty" sheetId="3" r:id="rId3"/>
+    <sheet name="BNT327" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
     <author>tc={7C2EFE98-7AF8-46BF-A2A8-7B6418971757}</author>
   </authors>
   <commentList>
-    <comment ref="Z5" authorId="0" shapeId="0" xr:uid="{7C2EFE98-7AF8-46BF-A2A8-7B6418971757}">
+    <comment ref="AC5" authorId="0" shapeId="0" xr:uid="{7C2EFE98-7AF8-46BF-A2A8-7B6418971757}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="121">
   <si>
     <t>Price</t>
   </si>
@@ -267,9 +268,6 @@
     <t>SE</t>
   </si>
   <si>
-    <t>Prof. Ugur Sahin</t>
-  </si>
-  <si>
     <t>2008: Founded</t>
   </si>
   <si>
@@ -307,13 +305,127 @@
   </si>
   <si>
     <t>Q224</t>
+  </si>
+  <si>
+    <t>BNT327/PM8002</t>
+  </si>
+  <si>
+    <t>SCLC, NSCLC</t>
+  </si>
+  <si>
+    <t>CEO: Prof. Ugur Sahin</t>
+  </si>
+  <si>
+    <t>PD-L1-VEGF-A bispecific</t>
+  </si>
+  <si>
+    <t>Biotheus acquisition</t>
+  </si>
+  <si>
+    <t>BNT327</t>
+  </si>
+  <si>
+    <t>PD-L1/VEGF bispecific</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>acquired Chinese antibody company Biotheus</t>
+  </si>
+  <si>
+    <t>Clinical Trials</t>
+  </si>
+  <si>
+    <t>Phase III vs. Tecentriq 1L ES-SCLC - NCT06712355</t>
+  </si>
+  <si>
+    <t>Phase II/III vs. Keytruda 1L NSCLC - NCT06712316</t>
+  </si>
+  <si>
+    <t>BNT323/DB-1303 (trastuzumab pamirtecan)</t>
+  </si>
+  <si>
+    <t>BNT326/YL202</t>
+  </si>
+  <si>
+    <t>BNT122/RO7198457 (autogene cevumeran)</t>
+  </si>
+  <si>
+    <t>Roche</t>
+  </si>
+  <si>
+    <t>Duality Biologics</t>
+  </si>
+  <si>
+    <t>1/24/25: 2025 preview</t>
+  </si>
+  <si>
+    <t>BNT316/ONC-392 (gotistobart)</t>
+  </si>
+  <si>
+    <t>CTLA4 mab</t>
+  </si>
+  <si>
+    <t>OncoC4</t>
+  </si>
+  <si>
+    <t>CSO: Ryan Richardson</t>
+  </si>
+  <si>
+    <t>2019: IPO</t>
+  </si>
+  <si>
+    <t>TROP2</t>
+  </si>
+  <si>
+    <t>HER2 ADC</t>
+  </si>
+  <si>
+    <t>HER3 ADC</t>
+  </si>
+  <si>
+    <t>BNT324/DB-1311</t>
+  </si>
+  <si>
+    <t>B7-H3 ADC</t>
+  </si>
+  <si>
+    <t>BNT325/DB-1305</t>
+  </si>
+  <si>
+    <t>Phase I/IIb 1L TNBC with nab-paclitaxel - NCT05918133</t>
+  </si>
+  <si>
+    <t>74% ORR</t>
+  </si>
+  <si>
+    <t>11/13/24: to acquire Biotheus for $800m.</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>BNT311/GEN1046 (acasunlimab)</t>
+  </si>
+  <si>
+    <t>PD-L1/4-1BB</t>
+  </si>
+  <si>
+    <t>GMAB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -343,6 +455,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -460,7 +580,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -506,6 +626,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -556,6 +678,56 @@
         <a:xfrm>
           <a:off x="5050444" y="80211"/>
           <a:ext cx="0" cy="7920789"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>20052</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>53474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>20052</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>3342</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FBB7C48-76D1-BB5E-721D-FC2624A2E7E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12673263" y="53474"/>
+          <a:ext cx="0" cy="5086684"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -884,7 +1056,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="Z5" dT="2023-02-27T19:38:57.48" personId="{5408AB7C-D285-4FFF-92FF-1A67FC74C4B1}" id="{7C2EFE98-7AF8-46BF-A2A8-7B6418971757}">
+  <threadedComment ref="AC5" dT="2023-02-27T19:38:57.48" personId="{5408AB7C-D285-4FFF-92FF-1A67FC74C4B1}" id="{7C2EFE98-7AF8-46BF-A2A8-7B6418971757}">
     <text>16-17B EUR Q322 guidance</text>
   </threadedComment>
 </ThreadedComments>
@@ -892,25 +1064,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A2D0BB-EC2F-4419-B5B8-5A9E61402036}">
-  <dimension ref="B2:L13"/>
+  <dimension ref="B2:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="2.28515625" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="21.7265625" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" customWidth="1"/>
+    <col min="9" max="9" width="2.26953125" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
@@ -936,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="K2" s="16">
-        <v>87.2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
@@ -959,13 +1131,13 @@
         <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>242.68540100000001</v>
+        <v>239.73975200000001</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -978,10 +1150,10 @@
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>21162.166967200003</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+        <v>28289.290736000003</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="E5" t="s">
         <v>33</v>
@@ -991,14 +1163,14 @@
         <v>5</v>
       </c>
       <c r="K5" s="2">
-        <f>10376.7+6919+1386.1</f>
-        <v>18681.8</v>
+        <f>9624.6+275.8+7084.7+1332.3</f>
+        <v>18317.399999999998</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="E6" t="s">
         <v>34</v>
@@ -1008,16 +1180,22 @@
         <v>6</v>
       </c>
       <c r="K6" s="2">
-        <f>42.1+146+35.3</f>
-        <v>223.39999999999998</v>
+        <f>206.3+44.3</f>
+        <v>250.60000000000002</v>
       </c>
       <c r="L6" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="24" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
-        <v>35</v>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
+        <v>86</v>
       </c>
       <c r="H7" s="21"/>
       <c r="J7" t="s">
@@ -1025,57 +1203,172 @@
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>2703.7669672000034</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+        <v>10222.490736000005</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H8" s="21"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="H9" s="21"/>
       <c r="J9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="J12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="2">
+        <v>917.4</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="22"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="G23" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
         <v>70</v>
       </c>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="22"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="G12" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="G13" t="s">
-        <v>71</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" location="'BNT327'!A1" display="BNT327/PM8002" xr:uid="{4AF635AA-BF38-4FCB-A50D-50D30532920E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -1083,31 +1376,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A713E281-DBD7-43C4-AF39-0BDD7430D7F5}">
-  <dimension ref="A1:AN42"/>
+  <dimension ref="A1:AQ42"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AK5" sqref="AK5"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="6" width="8.7109375" style="1" customWidth="1"/>
-    <col min="7" max="18" width="8.42578125" style="1" customWidth="1"/>
-    <col min="27" max="38" width="6.7109375" customWidth="1"/>
-    <col min="40" max="40" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" customWidth="1"/>
+    <col min="3" max="6" width="8.7265625" style="1" customWidth="1"/>
+    <col min="7" max="21" width="8.453125" style="1" customWidth="1"/>
+    <col min="30" max="41" width="6.7265625" customWidth="1"/>
+    <col min="43" max="43" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>41</v>
       </c>
@@ -1148,98 +1441,110 @@
         <v>31</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="V2">
+      <c r="S2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y2">
         <v>2018</v>
       </c>
-      <c r="W2">
-        <f>+V2+1</f>
+      <c r="Z2">
+        <f>+Y2+1</f>
         <v>2019</v>
       </c>
-      <c r="X2">
-        <f t="shared" ref="X2:AM2" si="0">+W2+1</f>
+      <c r="AA2">
+        <f t="shared" ref="AA2:AP2" si="0">+Z2+1</f>
         <v>2020</v>
       </c>
-      <c r="Y2">
+      <c r="AB2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="Z2">
+      <c r="AC2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AA2">
+      <c r="AD2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AB2">
+      <c r="AE2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AC2">
+      <c r="AF2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AD2">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AE2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AF2">
+      <c r="AI2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AG2">
+      <c r="AJ2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AH2">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AI2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="AJ2">
+      <c r="AM2">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="AK2">
+      <c r="AN2">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="AL2">
+      <c r="AO2">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="AM2">
+      <c r="AP2">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="E3" s="1">
         <f>CORREL(F4:M4,F5:M5)</f>
         <v>0.93033547439346964</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="17">
         <v>154</v>
@@ -1269,7 +1574,7 @@
         <v>11329</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>39</v>
       </c>
@@ -1306,66 +1611,73 @@
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
+      <c r="Q5" s="10">
+        <v>885</v>
+      </c>
       <c r="R5" s="10"/>
-      <c r="Y5" s="2">
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10">
+        <v>1113.9000000000001</v>
+      </c>
+      <c r="AB5" s="2">
         <f>SUM(G5:J5)</f>
         <v>18874</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="AC5" s="2">
         <f>SUM(K5:N5)</f>
         <v>18587.8</v>
       </c>
-      <c r="AA5" s="18">
-        <f>+Z5*0.5</f>
+      <c r="AD5" s="18">
+        <f>+AC5*0.5</f>
         <v>9293.9</v>
       </c>
-      <c r="AB5" s="18">
-        <f>+AA5*0.9</f>
+      <c r="AE5" s="18">
+        <f>+AD5*0.9</f>
         <v>8364.51</v>
       </c>
-      <c r="AC5" s="18">
-        <f>+AB5*0.5</f>
+      <c r="AF5" s="18">
+        <f>+AE5*0.5</f>
         <v>4182.2550000000001</v>
       </c>
-      <c r="AD5" s="18">
-        <f t="shared" ref="AD5:AL5" si="1">+AC5*0.5</f>
+      <c r="AG5" s="18">
+        <f t="shared" ref="AG5:AO5" si="1">+AF5*0.5</f>
         <v>2091.1275000000001</v>
       </c>
-      <c r="AE5" s="18">
+      <c r="AH5" s="18">
         <f t="shared" si="1"/>
         <v>1045.56375</v>
       </c>
-      <c r="AF5" s="18">
+      <c r="AI5" s="18">
         <f t="shared" si="1"/>
         <v>522.78187500000001</v>
       </c>
-      <c r="AG5" s="18">
+      <c r="AJ5" s="18">
         <f t="shared" si="1"/>
         <v>261.39093750000001</v>
       </c>
-      <c r="AH5" s="18">
+      <c r="AK5" s="18">
         <f t="shared" si="1"/>
         <v>130.69546875</v>
       </c>
-      <c r="AI5" s="18">
+      <c r="AL5" s="18">
         <f t="shared" si="1"/>
         <v>65.347734375000002</v>
       </c>
-      <c r="AJ5" s="18">
+      <c r="AM5" s="18">
         <f t="shared" si="1"/>
         <v>32.673867187500001</v>
       </c>
-      <c r="AK5" s="18">
+      <c r="AN5" s="18">
         <f t="shared" si="1"/>
         <v>16.33693359375</v>
       </c>
-      <c r="AL5" s="18">
+      <c r="AO5" s="18">
         <f t="shared" si="1"/>
         <v>8.1684667968750002</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
@@ -1402,10 +1714,17 @@
       </c>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
+      <c r="Q6" s="10">
+        <v>10.3</v>
+      </c>
       <c r="R6" s="10"/>
-    </row>
-    <row r="7" spans="1:39" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10">
+        <v>130.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>20</v>
       </c>
@@ -1441,7 +1760,7 @@
         <v>3196.5</v>
       </c>
       <c r="M7" s="13">
-        <f t="shared" si="2"/>
+        <f>+M5+M6</f>
         <v>3461.2000000000003</v>
       </c>
       <c r="N7" s="13">
@@ -1450,58 +1769,67 @@
       </c>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
+      <c r="Q7" s="13">
+        <f>+Q5+Q6</f>
+        <v>895.3</v>
+      </c>
       <c r="R7" s="13"/>
-      <c r="AA7" s="12">
-        <f>+AA5+AA6</f>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13">
+        <f>+U5+U6</f>
+        <v>1244.8000000000002</v>
+      </c>
+      <c r="AD7" s="12">
+        <f>+AD5+AD6</f>
         <v>9293.9</v>
       </c>
-      <c r="AB7" s="12">
-        <f t="shared" ref="AB7:AL7" si="3">+AB5+AB6</f>
+      <c r="AE7" s="12">
+        <f t="shared" ref="AE7:AO7" si="3">+AE5+AE6</f>
         <v>8364.51</v>
       </c>
-      <c r="AC7" s="12">
+      <c r="AF7" s="12">
         <f t="shared" si="3"/>
         <v>4182.2550000000001</v>
       </c>
-      <c r="AD7" s="12">
+      <c r="AG7" s="12">
         <f t="shared" si="3"/>
         <v>2091.1275000000001</v>
       </c>
-      <c r="AE7" s="12">
+      <c r="AH7" s="12">
         <f t="shared" si="3"/>
         <v>1045.56375</v>
       </c>
-      <c r="AF7" s="12">
+      <c r="AI7" s="12">
         <f t="shared" si="3"/>
         <v>522.78187500000001</v>
       </c>
-      <c r="AG7" s="12">
+      <c r="AJ7" s="12">
         <f t="shared" si="3"/>
         <v>261.39093750000001</v>
       </c>
-      <c r="AH7" s="12">
+      <c r="AK7" s="12">
         <f t="shared" si="3"/>
         <v>130.69546875</v>
       </c>
-      <c r="AI7" s="12">
+      <c r="AL7" s="12">
         <f t="shared" si="3"/>
         <v>65.347734375000002</v>
       </c>
-      <c r="AJ7" s="12">
+      <c r="AM7" s="12">
         <f t="shared" si="3"/>
         <v>32.673867187500001</v>
       </c>
-      <c r="AK7" s="12">
+      <c r="AN7" s="12">
         <f t="shared" si="3"/>
         <v>16.33693359375</v>
       </c>
-      <c r="AL7" s="12">
+      <c r="AO7" s="12">
         <f t="shared" si="3"/>
         <v>8.1684667968750002</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>42</v>
       </c>
@@ -1537,8 +1865,13 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
-    </row>
-    <row r="9" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10">
+        <v>178.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>43</v>
       </c>
@@ -1582,56 +1915,62 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
-      <c r="AA9" s="2">
-        <f>+AA7*0.8</f>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10">
+        <f>+U7-U8</f>
+        <v>1065.9000000000001</v>
+      </c>
+      <c r="AD9" s="2">
+        <f>+AD7*0.8</f>
         <v>7435.12</v>
       </c>
-      <c r="AB9" s="2">
-        <f t="shared" ref="AB9:AL9" si="5">+AB7*0.8</f>
+      <c r="AE9" s="2">
+        <f t="shared" ref="AE9:AO9" si="5">+AE7*0.8</f>
         <v>6691.6080000000002</v>
       </c>
-      <c r="AC9" s="2">
+      <c r="AF9" s="2">
         <f t="shared" si="5"/>
         <v>3345.8040000000001</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AG9" s="2">
         <f t="shared" si="5"/>
         <v>1672.902</v>
       </c>
-      <c r="AE9" s="2">
+      <c r="AH9" s="2">
         <f t="shared" si="5"/>
         <v>836.45100000000002</v>
       </c>
-      <c r="AF9" s="2">
+      <c r="AI9" s="2">
         <f t="shared" si="5"/>
         <v>418.22550000000001</v>
       </c>
-      <c r="AG9" s="2">
+      <c r="AJ9" s="2">
         <f t="shared" si="5"/>
         <v>209.11275000000001</v>
       </c>
-      <c r="AH9" s="2">
+      <c r="AK9" s="2">
         <f t="shared" si="5"/>
         <v>104.556375</v>
       </c>
-      <c r="AI9" s="2">
+      <c r="AL9" s="2">
         <f t="shared" si="5"/>
         <v>52.278187500000001</v>
       </c>
-      <c r="AJ9" s="2">
+      <c r="AM9" s="2">
         <f t="shared" si="5"/>
         <v>26.139093750000001</v>
       </c>
-      <c r="AK9" s="2">
+      <c r="AN9" s="2">
         <f t="shared" si="5"/>
         <v>13.069546875</v>
       </c>
-      <c r="AL9" s="2">
+      <c r="AO9" s="2">
         <f t="shared" si="5"/>
         <v>6.5347734375000002</v>
       </c>
     </row>
-    <row r="10" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>40</v>
       </c>
@@ -1667,8 +2006,13 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
-    </row>
-    <row r="11" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10">
+        <v>550.29999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>46</v>
       </c>
@@ -1704,8 +2048,13 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
-    </row>
-    <row r="12" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>47</v>
       </c>
@@ -1741,29 +2090,34 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
-      <c r="AA12" s="2">
-        <v>300</v>
-      </c>
-      <c r="AB12" s="2">
-        <v>300</v>
-      </c>
-      <c r="AC12" s="2">
-        <v>300</v>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10">
+        <v>132.4</v>
       </c>
       <c r="AD12" s="2">
         <v>300</v>
       </c>
       <c r="AE12" s="2">
+        <v>300</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>300</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>300</v>
+      </c>
+      <c r="AH12" s="2">
         <v>200</v>
       </c>
-      <c r="AF12" s="2">
+      <c r="AI12" s="2">
         <v>200</v>
       </c>
-      <c r="AG12" s="2">
+      <c r="AJ12" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
@@ -1807,45 +2161,39 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
-      <c r="AA13" s="2">
-        <f>+AA12+AA11+AA10</f>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10">
+        <f>SUM(U10:U12)</f>
+        <v>700.8</v>
+      </c>
+      <c r="AD13" s="2">
+        <f>+AD12+AD11+AD10</f>
         <v>300</v>
       </c>
-      <c r="AB13" s="2">
-        <f t="shared" ref="AB13:AL13" si="7">+AB12+AB11+AB10</f>
+      <c r="AE13" s="2">
+        <f t="shared" ref="AE13:AO13" si="7">+AE12+AE11+AE10</f>
         <v>300</v>
       </c>
-      <c r="AC13" s="2">
+      <c r="AF13" s="2">
         <f t="shared" si="7"/>
         <v>300</v>
       </c>
-      <c r="AD13" s="2">
+      <c r="AG13" s="2">
         <f t="shared" si="7"/>
         <v>300</v>
       </c>
-      <c r="AE13" s="2">
+      <c r="AH13" s="2">
         <f t="shared" si="7"/>
         <v>200</v>
       </c>
-      <c r="AF13" s="2">
+      <c r="AI13" s="2">
         <f t="shared" si="7"/>
         <v>200</v>
       </c>
-      <c r="AG13" s="2">
+      <c r="AJ13" s="2">
         <f t="shared" si="7"/>
         <v>100</v>
-      </c>
-      <c r="AH13" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI13" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
       </c>
       <c r="AK13" s="2">
         <f t="shared" si="7"/>
@@ -1855,8 +2203,20 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM13" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AN13" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO13" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>44</v>
       </c>
@@ -1900,56 +2260,62 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
-      <c r="AA14" s="2">
-        <f>+AA9-AA13</f>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10">
+        <f>U9-U13</f>
+        <v>365.10000000000014</v>
+      </c>
+      <c r="AD14" s="2">
+        <f>+AD9-AD13</f>
         <v>7135.12</v>
       </c>
-      <c r="AB14" s="2">
-        <f t="shared" ref="AB14:AL14" si="9">+AB9-AB13</f>
+      <c r="AE14" s="2">
+        <f t="shared" ref="AE14:AO14" si="9">+AE9-AE13</f>
         <v>6391.6080000000002</v>
       </c>
-      <c r="AC14" s="2">
+      <c r="AF14" s="2">
         <f t="shared" si="9"/>
         <v>3045.8040000000001</v>
       </c>
-      <c r="AD14" s="2">
+      <c r="AG14" s="2">
         <f t="shared" si="9"/>
         <v>1372.902</v>
       </c>
-      <c r="AE14" s="2">
+      <c r="AH14" s="2">
         <f t="shared" si="9"/>
         <v>636.45100000000002</v>
       </c>
-      <c r="AF14" s="2">
+      <c r="AI14" s="2">
         <f t="shared" si="9"/>
         <v>218.22550000000001</v>
       </c>
-      <c r="AG14" s="2">
+      <c r="AJ14" s="2">
         <f t="shared" si="9"/>
         <v>109.11275000000001</v>
       </c>
-      <c r="AH14" s="2">
+      <c r="AK14" s="2">
         <f t="shared" si="9"/>
         <v>104.556375</v>
       </c>
-      <c r="AI14" s="2">
+      <c r="AL14" s="2">
         <f t="shared" si="9"/>
         <v>52.278187500000001</v>
       </c>
-      <c r="AJ14" s="2">
+      <c r="AM14" s="2">
         <f t="shared" si="9"/>
         <v>26.139093750000001</v>
       </c>
-      <c r="AK14" s="2">
+      <c r="AN14" s="2">
         <f t="shared" si="9"/>
         <v>13.069546875</v>
       </c>
-      <c r="AL14" s="2">
+      <c r="AO14" s="2">
         <f t="shared" si="9"/>
         <v>6.5347734375000002</v>
       </c>
     </row>
-    <row r="15" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>48</v>
       </c>
@@ -1993,8 +2359,13 @@
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
-    </row>
-    <row r="16" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>49</v>
       </c>
@@ -2038,56 +2409,62 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
-      <c r="AA16" s="2">
-        <f>+AA14+AA15</f>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10">
+        <f>+U14+U15</f>
+        <v>357.10000000000014</v>
+      </c>
+      <c r="AD16" s="2">
+        <f>+AD14+AD15</f>
         <v>7135.12</v>
       </c>
-      <c r="AB16" s="2">
-        <f t="shared" ref="AB16:AL16" si="11">+AB14+AB15</f>
+      <c r="AE16" s="2">
+        <f t="shared" ref="AE16:AO16" si="11">+AE14+AE15</f>
         <v>6391.6080000000002</v>
       </c>
-      <c r="AC16" s="2">
+      <c r="AF16" s="2">
         <f t="shared" si="11"/>
         <v>3045.8040000000001</v>
       </c>
-      <c r="AD16" s="2">
+      <c r="AG16" s="2">
         <f t="shared" si="11"/>
         <v>1372.902</v>
       </c>
-      <c r="AE16" s="2">
+      <c r="AH16" s="2">
         <f t="shared" si="11"/>
         <v>636.45100000000002</v>
       </c>
-      <c r="AF16" s="2">
+      <c r="AI16" s="2">
         <f t="shared" si="11"/>
         <v>218.22550000000001</v>
       </c>
-      <c r="AG16" s="2">
+      <c r="AJ16" s="2">
         <f t="shared" si="11"/>
         <v>109.11275000000001</v>
       </c>
-      <c r="AH16" s="2">
+      <c r="AK16" s="2">
         <f t="shared" si="11"/>
         <v>104.556375</v>
       </c>
-      <c r="AI16" s="2">
+      <c r="AL16" s="2">
         <f t="shared" si="11"/>
         <v>52.278187500000001</v>
       </c>
-      <c r="AJ16" s="2">
+      <c r="AM16" s="2">
         <f t="shared" si="11"/>
         <v>26.139093750000001</v>
       </c>
-      <c r="AK16" s="2">
+      <c r="AN16" s="2">
         <f t="shared" si="11"/>
         <v>13.069546875</v>
       </c>
-      <c r="AL16" s="2">
+      <c r="AO16" s="2">
         <f t="shared" si="11"/>
         <v>6.5347734375000002</v>
       </c>
     </row>
-    <row r="17" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>50</v>
       </c>
@@ -2123,56 +2500,61 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
-      <c r="AA17" s="2">
-        <f>+AA16*0.25</f>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10">
+        <v>39.4</v>
+      </c>
+      <c r="AD17" s="2">
+        <f>+AD16*0.25</f>
         <v>1783.78</v>
       </c>
-      <c r="AB17" s="2">
-        <f t="shared" ref="AB17:AL17" si="12">+AB16*0.25</f>
+      <c r="AE17" s="2">
+        <f t="shared" ref="AE17:AO17" si="12">+AE16*0.25</f>
         <v>1597.902</v>
       </c>
-      <c r="AC17" s="2">
+      <c r="AF17" s="2">
         <f t="shared" si="12"/>
         <v>761.45100000000002</v>
       </c>
-      <c r="AD17" s="2">
+      <c r="AG17" s="2">
         <f t="shared" si="12"/>
         <v>343.22550000000001</v>
       </c>
-      <c r="AE17" s="2">
+      <c r="AH17" s="2">
         <f t="shared" si="12"/>
         <v>159.11275000000001</v>
       </c>
-      <c r="AF17" s="2">
+      <c r="AI17" s="2">
         <f t="shared" si="12"/>
         <v>54.556375000000003</v>
       </c>
-      <c r="AG17" s="2">
+      <c r="AJ17" s="2">
         <f t="shared" si="12"/>
         <v>27.278187500000001</v>
       </c>
-      <c r="AH17" s="2">
+      <c r="AK17" s="2">
         <f t="shared" si="12"/>
         <v>26.139093750000001</v>
       </c>
-      <c r="AI17" s="2">
+      <c r="AL17" s="2">
         <f t="shared" si="12"/>
         <v>13.069546875</v>
       </c>
-      <c r="AJ17" s="2">
+      <c r="AM17" s="2">
         <f t="shared" si="12"/>
         <v>6.5347734375000002</v>
       </c>
-      <c r="AK17" s="2">
+      <c r="AN17" s="2">
         <f t="shared" si="12"/>
         <v>3.2673867187500001</v>
       </c>
-      <c r="AL17" s="2">
+      <c r="AO17" s="2">
         <f t="shared" si="12"/>
         <v>1.633693359375</v>
       </c>
     </row>
-    <row r="18" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>51</v>
       </c>
@@ -2216,56 +2598,62 @@
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
-      <c r="AA18" s="2">
-        <f>+AA16-AA17</f>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10">
+        <f>+U16-U17</f>
+        <v>317.70000000000016</v>
+      </c>
+      <c r="AD18" s="2">
+        <f>+AD16-AD17</f>
         <v>5351.34</v>
       </c>
-      <c r="AB18" s="2">
-        <f t="shared" ref="AB18:AL18" si="14">+AB16-AB17</f>
+      <c r="AE18" s="2">
+        <f t="shared" ref="AE18:AO18" si="14">+AE16-AE17</f>
         <v>4793.7060000000001</v>
       </c>
-      <c r="AC18" s="2">
+      <c r="AF18" s="2">
         <f t="shared" si="14"/>
         <v>2284.3530000000001</v>
       </c>
-      <c r="AD18" s="2">
+      <c r="AG18" s="2">
         <f t="shared" si="14"/>
         <v>1029.6765</v>
       </c>
-      <c r="AE18" s="2">
+      <c r="AH18" s="2">
         <f t="shared" si="14"/>
         <v>477.33825000000002</v>
       </c>
-      <c r="AF18" s="2">
+      <c r="AI18" s="2">
         <f t="shared" si="14"/>
         <v>163.66912500000001</v>
       </c>
-      <c r="AG18" s="2">
+      <c r="AJ18" s="2">
         <f t="shared" si="14"/>
         <v>81.834562500000004</v>
       </c>
-      <c r="AH18" s="2">
+      <c r="AK18" s="2">
         <f t="shared" si="14"/>
         <v>78.417281250000002</v>
       </c>
-      <c r="AI18" s="2">
+      <c r="AL18" s="2">
         <f t="shared" si="14"/>
         <v>39.208640625000001</v>
       </c>
-      <c r="AJ18" s="2">
+      <c r="AM18" s="2">
         <f t="shared" si="14"/>
         <v>19.604320312500001</v>
       </c>
-      <c r="AK18" s="2">
+      <c r="AN18" s="2">
         <f t="shared" si="14"/>
         <v>9.8021601562500003</v>
       </c>
-      <c r="AL18" s="2">
+      <c r="AO18" s="2">
         <f t="shared" si="14"/>
         <v>4.9010800781250001</v>
       </c>
     </row>
-    <row r="19" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>52</v>
       </c>
@@ -2280,7 +2668,7 @@
         <v>6.8895893854173114</v>
       </c>
     </row>
-    <row r="20" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>53</v>
       </c>
@@ -2302,16 +2690,19 @@
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
-    </row>
-    <row r="21" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="AM21" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN21" s="19">
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+    </row>
+    <row r="21" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AP21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ21" s="19">
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>54</v>
       </c>
@@ -2335,17 +2726,21 @@
         <f>+M7/I7-1</f>
         <v>-0.43140637064051379</v>
       </c>
-      <c r="AM22" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN22" s="2">
-        <f>NPV(AN21,AA18:AL18)+Main!K5-Main!K6</f>
-        <v>30646.379461112119</v>
-      </c>
-    </row>
-    <row r="23" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="U22" s="14">
+        <f>U5/Q5-1</f>
+        <v>0.2586440677966102</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ22" s="2">
+        <f>NPV(AQ21,AD18:AO18)+Main!K5-Main!K6</f>
+        <v>30254.779461112121</v>
+      </c>
+    </row>
+    <row r="23" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -2382,17 +2777,17 @@
         <f t="shared" si="15"/>
         <v>0.77119491140390739</v>
       </c>
-      <c r="AM23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN23" s="16">
-        <f>AN22/Main!K3</f>
-        <v>126.28027617166852</v>
-      </c>
-    </row>
-    <row r="24" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP23" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ23" s="16">
+        <f>AQ22/Main!K3</f>
+        <v>126.19842645500076</v>
+      </c>
+    </row>
+    <row r="24" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -2430,9 +2825,9 @@
         <v>0.78250317808852432</v>
       </c>
     </row>
-    <row r="25" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -2470,7 +2865,7 @@
         <v>0.26971073196677708</v>
       </c>
     </row>
-    <row r="27" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>58</v>
       </c>
@@ -2483,7 +2878,7 @@
         <v>13481.3</v>
       </c>
     </row>
-    <row r="28" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>59</v>
       </c>
@@ -2491,7 +2886,7 @@
         <v>7309.4</v>
       </c>
     </row>
-    <row r="29" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>60</v>
       </c>
@@ -2503,7 +2898,7 @@
         <v>294.8</v>
       </c>
     </row>
-    <row r="30" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>61</v>
       </c>
@@ -2512,7 +2907,7 @@
         <v>516.70000000000005</v>
       </c>
     </row>
-    <row r="31" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>50</v>
       </c>
@@ -2524,7 +2919,7 @@
         <v>343.7</v>
       </c>
     </row>
-    <row r="32" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>63</v>
       </c>
@@ -2536,7 +2931,7 @@
         <v>488.5</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>62</v>
       </c>
@@ -2544,7 +2939,7 @@
         <v>226.2</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>64</v>
       </c>
@@ -2553,7 +2948,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>61</v>
       </c>
@@ -2562,7 +2957,7 @@
         <v>125.19999999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>65</v>
       </c>
@@ -2571,7 +2966,7 @@
         <v>727.69999999999993</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>66</v>
       </c>
@@ -2580,7 +2975,7 @@
         <v>775.4</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>50</v>
       </c>
@@ -2589,7 +2984,7 @@
         <v>1402.5</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>67</v>
       </c>
@@ -2597,7 +2992,7 @@
         <v>296.5</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>69</v>
       </c>
@@ -2605,7 +3000,7 @@
         <v>18366.3</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>68</v>
       </c>
@@ -2633,14 +3028,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2651,4 +3046,88 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389E9535-F314-45C5-8305-C9960AA4B1F9}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C7" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C10" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C14" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{46EF8122-A7A2-47B6-A6C9-67BC3973921D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>